--- a/excel-basic/principiantes/principiantes.xlsx
+++ b/excel-basic/principiantes/principiantes.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\github\DataScience\excel-basic\principiantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A0C538-AE67-43BB-A7CB-F224B04BCA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA01211-B752-4D4A-8412-9721C71F25EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="240" windowWidth="20730" windowHeight="11400" activeTab="1" xr2:uid="{70947566-05F1-441E-A2F6-1340AACD21C5}"/>
+    <workbookView xWindow="-120" yWindow="240" windowWidth="20730" windowHeight="11400" activeTab="2" xr2:uid="{70947566-05F1-441E-A2F6-1340AACD21C5}"/>
   </bookViews>
   <sheets>
     <sheet name="FirstDay" sheetId="1" r:id="rId1"/>
     <sheet name="1_form" sheetId="2" r:id="rId2"/>
+    <sheet name="2_graficos" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>hola</t>
   </si>
@@ -69,16 +70,62 @@
   <si>
     <t>ESTUFA</t>
   </si>
+  <si>
+    <t>GRAFICO ESTADISTICO</t>
+  </si>
+  <si>
+    <t>SUELDO ENERO</t>
+  </si>
+  <si>
+    <t>NOMBRE Y APELLIDO</t>
+  </si>
+  <si>
+    <t>DIAS TRABAJADOS</t>
+  </si>
+  <si>
+    <t>SUELDO BASICO</t>
+  </si>
+  <si>
+    <t>TOTAL SUELDO</t>
+  </si>
+  <si>
+    <t>DOSTIN HURTADO</t>
+  </si>
+  <si>
+    <t>SANDY OLIVERA</t>
+  </si>
+  <si>
+    <t>CARLOS RAMIREZ</t>
+  </si>
+  <si>
+    <t>VICTOR ESPINOZA</t>
+  </si>
+  <si>
+    <t>JUAN PABLO MAECHA</t>
+  </si>
+  <si>
+    <t>EDGAR ORTIZ</t>
+  </si>
+  <si>
+    <t>TATIANA AYA</t>
+  </si>
+  <si>
+    <t>JULIANO CENTURION</t>
+  </si>
+  <si>
+    <t>SUELDO FEBRERO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,8 +164,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +183,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -160,7 +233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -169,24 +242,36 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -203,6 +288,2128 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.62324999999999997"/>
+          <c:y val="0.3888888888888889"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-GT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2_graficos'!$A$6:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>DOSTIN HURTADO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SANDY OLIVERA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CARLOS RAMIREZ</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>VICTOR ESPINOZA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JUAN PABLO MAECHA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EDGAR ORTIZ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>TATIANA AYA</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>JULIANO CENTURION</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2_graficos'!$D$6:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>540000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000.00000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>366666.66666666663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-67E4-4BFA-BAA9-C1671AEC0B11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="418944032"/>
+        <c:axId val="426453008"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="418944032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="426453008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="426453008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418944032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ENRO</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2_graficos'!$A$21:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>DOSTIN HURTADO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SANDY OLIVERA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CARLOS RAMIREZ</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>VICTOR ESPINOZA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JUAN PABLO MAECHA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EDGAR ORTIZ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>TATIANA AYA</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>JULIANO CENTURION</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2_graficos'!$D$6:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>540000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000.00000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>366666.66666666663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-563F-48DF-A2BA-E70CA6317E82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>FEBRERO</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2_graficos'!$A$21:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>DOSTIN HURTADO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SANDY OLIVERA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CARLOS RAMIREZ</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>VICTOR ESPINOZA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JUAN PABLO MAECHA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EDGAR ORTIZ</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>TATIANA AYA</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>JULIANO CENTURION</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2_graficos'!$D$21:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>666666.66666666674</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>720000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1353333.3333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>533333.33333333337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1666666.6666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2053333.3333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1920000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-563F-48DF-A2BA-E70CA6317E82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="418479632"/>
+        <c:axId val="418479216"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="418479632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418479216"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="418479216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418479632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75AE342D-8953-4CDD-9BBE-3EAE759158D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1CC9F87-970B-4F43-A75D-589057421606}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -532,8 +2739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D37ABE5-CDF6-4E74-A884-7C72204852DE}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,12 +2752,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -573,10 +2780,10 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>1500000</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <f>A4*C4</f>
         <v>3000000</v>
       </c>
@@ -588,10 +2795,10 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>700000</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <f t="shared" ref="D5:D15" si="0">A5*C5</f>
         <v>1400000</v>
       </c>
@@ -603,10 +2810,10 @@
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>600000</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <f t="shared" si="0"/>
         <v>1800000</v>
       </c>
@@ -614,8 +2821,8 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7">
+      <c r="C7" s="5"/>
+      <c r="D7" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -623,8 +2830,8 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7">
+      <c r="C8" s="5"/>
+      <c r="D8" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -632,8 +2839,8 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7">
+      <c r="C9" s="5"/>
+      <c r="D9" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -641,8 +2848,8 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7">
+      <c r="C10" s="5"/>
+      <c r="D10" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -650,8 +2857,8 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7">
+      <c r="C11" s="5"/>
+      <c r="D11" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -659,8 +2866,8 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7">
+      <c r="C12" s="5"/>
+      <c r="D12" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -668,8 +2875,8 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7">
+      <c r="C13" s="5"/>
+      <c r="D13" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -677,8 +2884,8 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7">
+      <c r="C14" s="5"/>
+      <c r="D14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -686,17 +2893,17 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7">
+      <c r="C15" s="5"/>
+      <c r="D15" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <f>SUM(D4:D15)</f>
         <v>6200000</v>
       </c>
@@ -708,4 +2915,324 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B820D02-043F-4332-91D5-BFC233694CB8}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="13">
+        <v>30</v>
+      </c>
+      <c r="C6" s="14">
+        <v>800000</v>
+      </c>
+      <c r="D6" s="15">
+        <f>C6/30*B6</f>
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="13">
+        <v>18</v>
+      </c>
+      <c r="C7" s="14">
+        <v>900000</v>
+      </c>
+      <c r="D7" s="15">
+        <f t="shared" ref="D7:D13" si="0">C7/30*B7</f>
+        <v>540000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="13">
+        <v>15</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="D8" s="15">
+        <f t="shared" si="0"/>
+        <v>500000.00000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="13">
+        <v>10</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1100000</v>
+      </c>
+      <c r="D9" s="15">
+        <f t="shared" si="0"/>
+        <v>366666.66666666663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="13">
+        <v>25</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1200000</v>
+      </c>
+      <c r="D10" s="15">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="13">
+        <v>30</v>
+      </c>
+      <c r="C11" s="14">
+        <v>1300000</v>
+      </c>
+      <c r="D11" s="15">
+        <f t="shared" si="0"/>
+        <v>1300000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="13">
+        <v>30</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1400000</v>
+      </c>
+      <c r="D12" s="15">
+        <f t="shared" si="0"/>
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="13">
+        <v>25</v>
+      </c>
+      <c r="C13" s="14">
+        <v>1500000</v>
+      </c>
+      <c r="D13" s="15">
+        <f t="shared" si="0"/>
+        <v>1250000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="13">
+        <v>20</v>
+      </c>
+      <c r="C21" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="D21" s="15">
+        <f>C21/30*B21</f>
+        <v>666666.66666666674</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="13">
+        <v>18</v>
+      </c>
+      <c r="C22" s="14">
+        <v>1200000</v>
+      </c>
+      <c r="D22" s="15">
+        <f t="shared" ref="D22:D28" si="1">C22/30*B22</f>
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="13">
+        <v>29</v>
+      </c>
+      <c r="C23" s="14">
+        <v>1400000</v>
+      </c>
+      <c r="D23" s="15">
+        <f t="shared" si="1"/>
+        <v>1353333.3333333333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="13">
+        <v>10</v>
+      </c>
+      <c r="C24" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="D24" s="15">
+        <f t="shared" si="1"/>
+        <v>533333.33333333337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="13">
+        <v>25</v>
+      </c>
+      <c r="C25" s="14">
+        <v>1800000</v>
+      </c>
+      <c r="D25" s="15">
+        <f t="shared" si="1"/>
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="13">
+        <v>25</v>
+      </c>
+      <c r="C26" s="14">
+        <v>2000000</v>
+      </c>
+      <c r="D26" s="15">
+        <f t="shared" si="1"/>
+        <v>1666666.6666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="13">
+        <v>28</v>
+      </c>
+      <c r="C27" s="14">
+        <v>2200000</v>
+      </c>
+      <c r="D27" s="15">
+        <f t="shared" si="1"/>
+        <v>2053333.3333333333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="13">
+        <v>24</v>
+      </c>
+      <c r="C28" s="14">
+        <v>2400000</v>
+      </c>
+      <c r="D28" s="15">
+        <f t="shared" si="1"/>
+        <v>1920000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A19:D19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/excel-basic/principiantes/principiantes.xlsx
+++ b/excel-basic/principiantes/principiantes.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\github\DataScience\excel-basic\principiantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA01211-B752-4D4A-8412-9721C71F25EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD9B182-6B39-44AC-BEFE-CD55C55EEFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="240" windowWidth="20730" windowHeight="11400" activeTab="2" xr2:uid="{70947566-05F1-441E-A2F6-1340AACD21C5}"/>
+    <workbookView xWindow="-120" yWindow="240" windowWidth="20730" windowHeight="11400" activeTab="3" xr2:uid="{70947566-05F1-441E-A2F6-1340AACD21C5}"/>
   </bookViews>
   <sheets>
     <sheet name="FirstDay" sheetId="1" r:id="rId1"/>
     <sheet name="1_form" sheetId="2" r:id="rId2"/>
     <sheet name="2_graficos" sheetId="3" r:id="rId3"/>
+    <sheet name="3_funsion" sheetId="4" r:id="rId4"/>
+    <sheet name="3_1_Facturas" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>hola</t>
   </si>
@@ -114,18 +116,109 @@
   </si>
   <si>
     <t>SUELDO FEBRERO</t>
+  </si>
+  <si>
+    <t>SISTEMAS UNIDOS</t>
+  </si>
+  <si>
+    <t>FUNSION SI - EXCEL 2013</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Apellido</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>Access</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>Nota Final</t>
+  </si>
+  <si>
+    <t>Dostin</t>
+  </si>
+  <si>
+    <t>Hurtado</t>
+  </si>
+  <si>
+    <t>Sandy</t>
+  </si>
+  <si>
+    <t>Olivera</t>
+  </si>
+  <si>
+    <t>Juliano</t>
+  </si>
+  <si>
+    <t>Centurion</t>
+  </si>
+  <si>
+    <t>Fukencio</t>
+  </si>
+  <si>
+    <t>Martines</t>
+  </si>
+  <si>
+    <t>CANTIDA</t>
+  </si>
+  <si>
+    <t>DESCRIPCION</t>
+  </si>
+  <si>
+    <t>ESTUFAS</t>
+  </si>
+  <si>
+    <t>NEVERAS</t>
+  </si>
+  <si>
+    <t>SUB-TOTAL</t>
+  </si>
+  <si>
+    <t>DESC.</t>
+  </si>
+  <si>
+    <t>FORMA DE PAGO</t>
+  </si>
+  <si>
+    <t>CONTADO</t>
+  </si>
+  <si>
+    <t>OTRA FORMULA</t>
+  </si>
+  <si>
+    <t>D4 &lt; &gt; "CONTADO"</t>
+  </si>
+  <si>
+    <t>D17*10%</t>
+  </si>
+  <si>
+    <t>FORMULA ACTUAL</t>
+  </si>
+  <si>
+    <t>"=SI(D3 = "CONTADO";D17*10%;0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="174" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +259,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -173,7 +274,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,8 +305,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -228,12 +335,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -260,10 +441,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -271,7 +455,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -2739,8 +2970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D37ABE5-CDF6-4E74-A884-7C72204852DE}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2921,7 +3152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B820D02-043F-4332-91D5-BFC233694CB8}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+    <sheetView topLeftCell="C4" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -2934,293 +3165,293 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="14">
         <v>30</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="15">
         <v>800000</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="17">
         <f>C6/30*B6</f>
         <v>800000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="14">
         <v>18</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="15">
         <v>900000</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="17">
         <f t="shared" ref="D7:D13" si="0">C7/30*B7</f>
         <v>540000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="14">
         <v>15</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="15">
         <v>1000000</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="17">
         <f t="shared" si="0"/>
         <v>500000.00000000006</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="14">
         <v>10</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="15">
         <v>1100000</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="17">
         <f t="shared" si="0"/>
         <v>366666.66666666663</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="14">
         <v>25</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="15">
         <v>1200000</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="17">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="14">
         <v>30</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="15">
         <v>1300000</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="17">
         <f t="shared" si="0"/>
         <v>1300000</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="14">
         <v>30</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="15">
         <v>1400000</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="17">
         <f t="shared" si="0"/>
         <v>1400000</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="14">
         <v>25</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="15">
         <v>1500000</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="17">
         <f t="shared" si="0"/>
         <v>1250000</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="14">
         <v>20</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="15">
         <v>1000000</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="17">
         <f>C21/30*B21</f>
         <v>666666.66666666674</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="14">
         <v>18</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="15">
         <v>1200000</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="17">
         <f t="shared" ref="D22:D28" si="1">C22/30*B22</f>
         <v>720000</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="14">
         <v>29</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="15">
         <v>1400000</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="17">
         <f t="shared" si="1"/>
         <v>1353333.3333333333</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="14">
         <v>10</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="15">
         <v>1600000</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="17">
         <f t="shared" si="1"/>
         <v>533333.33333333337</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="14">
         <v>25</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="15">
         <v>1800000</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="17">
         <f t="shared" si="1"/>
         <v>1500000</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="14">
         <v>25</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="15">
         <v>2000000</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="17">
         <f t="shared" si="1"/>
         <v>1666666.6666666667</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="14">
         <v>28</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="15">
         <v>2200000</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="17">
         <f t="shared" si="1"/>
         <v>2053333.3333333333</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="14">
         <v>24</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="15">
         <v>2400000</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="17">
         <f t="shared" si="1"/>
         <v>1920000</v>
       </c>
@@ -3235,4 +3466,423 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11BF7C2B-71E3-4865-A7BC-1D8832BC1749}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="14">
+        <v>5</v>
+      </c>
+      <c r="D7" s="14">
+        <v>5</v>
+      </c>
+      <c r="E7" s="14">
+        <v>5</v>
+      </c>
+      <c r="F7" s="23">
+        <f>AVERAGE(C7:E7)</f>
+        <v>5</v>
+      </c>
+      <c r="G7" s="14" t="str">
+        <f>IF(E7 &gt; 3,"APROBO","REPROBO")</f>
+        <v>APROBO</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="14">
+        <v>2</v>
+      </c>
+      <c r="D8" s="14">
+        <v>2</v>
+      </c>
+      <c r="E8" s="14">
+        <v>4</v>
+      </c>
+      <c r="F8" s="23">
+        <f t="shared" ref="F8:F10" si="0">AVERAGE(C8:E8)</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="G8" s="14" t="str">
+        <f>IF(E8 &gt; 3,"APROBO","REPROBO")</f>
+        <v>APROBO</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="14">
+        <v>5</v>
+      </c>
+      <c r="D9" s="14">
+        <v>3</v>
+      </c>
+      <c r="E9" s="14">
+        <v>4</v>
+      </c>
+      <c r="F9" s="23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G9" s="14" t="str">
+        <f>IF(E9&lt;3,"REPROBO","APROBO")</f>
+        <v>APROBO</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="14">
+        <v>3</v>
+      </c>
+      <c r="D10" s="14">
+        <v>2</v>
+      </c>
+      <c r="E10" s="14">
+        <v>2</v>
+      </c>
+      <c r="F10" s="23">
+        <f t="shared" si="0"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="G10" s="14" t="str">
+        <f t="shared" ref="G9:G10" si="1">IF(E10 &gt; 3,"APROBO","REPROBO")</f>
+        <v>REPROBO</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA617CEA-6361-4631-BCB0-B5D90D619939}">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H4" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="32"/>
+      <c r="I5" s="27">
+        <v>0</v>
+      </c>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>2</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="15">
+        <v>700000</v>
+      </c>
+      <c r="D6" s="16">
+        <f>A6*C6</f>
+        <v>1400000</v>
+      </c>
+      <c r="H6" s="33"/>
+      <c r="I6" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>1</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="15">
+        <v>600000</v>
+      </c>
+      <c r="D7" s="16">
+        <f t="shared" ref="D7:D16" si="0">A7*C7</f>
+        <v>600000</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="30"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>2</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="15">
+        <v>1500000</v>
+      </c>
+      <c r="D8" s="16">
+        <f t="shared" si="0"/>
+        <v>3000000</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="6">
+        <f>SUM(D6:D16)</f>
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="26">
+        <f>IF(D3 &lt;&gt; "CONTADO",0,D17*10%)</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="15">
+        <f>D17-D18</f>
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H4:H6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>